--- a/pegasus/sites.v3/code.org/public/files/stipendcalculator.xlsx
+++ b/pegasus/sites.v3/code.org/public/files/stipendcalculator.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1720" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,27 +63,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -90,6 +103,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -100,6 +114,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -110,6 +125,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -118,6 +134,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -126,6 +143,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -136,6 +154,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -146,6 +165,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -154,158 +174,473 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.71"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="119" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="10">
         <f>(94*B3*B4)/2</f>
-        <v>$45,120.00</v>
-      </c>
-      <c r="C8" s="11" t="str">
+        <v>45120</v>
+      </c>
+      <c r="C8" s="10">
         <f>(65*B3*B5)/2</f>
-        <v>$31,200.00</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="11">
         <f>(94*B3*B4)/2</f>
-        <v>$45,120.00</v>
-      </c>
-      <c r="C9" s="12" t="str">
+        <v>45120</v>
+      </c>
+      <c r="C9" s="11">
         <f>(65*B3*B5)/2</f>
-        <v>$31,200.00</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="str">
-        <f t="shared" ref="B10:C10" si="1">sum(B8:B9)</f>
-        <v>$90,240.00</v>
-      </c>
-      <c r="C10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$62,400.00</v>
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:C10" si="0">SUM(B8:B9)</f>
+        <v>90240</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>62400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pegasus/sites.v3/code.org/public/files/stipendcalculator.xlsx
+++ b/pegasus/sites.v3/code.org/public/files/stipendcalculator.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1720" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
@@ -21,43 +21,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>DATA ENTRY FOR DISTRICTS</t>
+  </si>
+  <si>
+    <t>Stipend Cost Per Hour</t>
+  </si>
+  <si>
+    <t>Number of Committed High School Teachers</t>
+  </si>
+  <si>
+    <t>Number of Committed Middle School Teachers</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Middle School</t>
+  </si>
+  <si>
+    <t>Code.org Pays</t>
+  </si>
+  <si>
+    <t>District Pays</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Important Notes: 
 1) Code.org will match up to 1/2 of the stipends costs for the district. 
 2) Code.org will not cover teacher taxes and benfits. 
 3) Code.org will pay the district directly, which needs to, in turn, pay the teachers for their time in professional development (PD). 
 4) This calcuator assumes that all teachers will attend all phases of the PD. See the application for detailed description of the PD model.
-5) Total hours for high school PD is 94 (online and in-person) and total hours for middle school PD is 65 (online and in-person).
+5) Total hours for high school PD is 94 (online and in-person) and total hours for middle school PD is 55 (online and in-person).
 6) The number of committed teachers entered below should be the TOTAL number of teachers you plan to enroll in either high school course (Exploring Computer Science or Computer Science Principles) or either middle school courses (Computer Science in Algebra, Computer Science in Science). For example, you may want to enroll 30 ECS teachers and 30 CSP teachers therefore you would enter 60 teachers in cell B4.</t>
-  </si>
-  <si>
-    <t>DATA ENTRY FOR DISTRICTS</t>
-  </si>
-  <si>
-    <t>Stipend Cost Per Hour</t>
-  </si>
-  <si>
-    <t>Number of Committed High School Teachers</t>
-  </si>
-  <si>
-    <t>Number of Committed Middle School Teachers</t>
-  </si>
-  <si>
-    <t>RESULTS</t>
-  </si>
-  <si>
-    <t>High School</t>
-  </si>
-  <si>
-    <t>Middle School</t>
-  </si>
-  <si>
-    <t>Code.org Pays</t>
-  </si>
-  <si>
-    <t>District Pays</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="119" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -552,13 +552,13 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>32</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>30</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>30</v>
@@ -582,46 +582,46 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10">
         <f>(94*B3*B4)/2</f>
         <v>45120</v>
       </c>
       <c r="C8" s="10">
-        <f>(65*B3*B5)/2</f>
-        <v>31200</v>
+        <f>(55*B3*B5)/2</f>
+        <v>26400</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11">
         <f>(94*B3*B4)/2</f>
         <v>45120</v>
       </c>
       <c r="C9" s="11">
-        <f>(65*B3*B5)/2</f>
-        <v>31200</v>
+        <f>(55*B3*B5)/2</f>
+        <v>26400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10">
         <f t="shared" ref="B10:C10" si="0">SUM(B8:B9)</f>
@@ -629,7 +629,7 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>62400</v>
+        <v>52800</v>
       </c>
     </row>
   </sheetData>
